--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -836,7 +836,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="12.12.2021" sheetId="11" r:id="rId2"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId2"/>
     <sheet name="09.12.2021" sheetId="10" r:id="rId3"/>
     <sheet name="07.11.2021" sheetId="9" r:id="rId4"/>
     <sheet name="20.10.2021" sheetId="8" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="110">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -325,12 +325,6 @@
     <t>14.12.2021</t>
   </si>
   <si>
-    <t>30.12.2021</t>
-  </si>
-  <si>
-    <t>Bl99</t>
-  </si>
-  <si>
     <t>L33</t>
   </si>
   <si>
@@ -341,6 +335,30 @@
   </si>
   <si>
     <t>Flash Light &amp; Phone off</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charging Port </t>
+  </si>
+  <si>
+    <t>17.01.2022</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>Button Up Big Space</t>
+  </si>
+  <si>
+    <t>Lifting Duration</t>
+  </si>
+  <si>
+    <t>Camera Problem</t>
   </si>
 </sst>
 </file>
@@ -476,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,13 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,9 +551,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -833,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,38 +854,42 @@
     <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="5" max="5" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -892,275 +905,476 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
-        <v>351251781852425</v>
+        <v>355002761600540</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8">
-        <v>355482206841364</v>
+        <v>355645524540047</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8">
-        <v>355482207034563</v>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3">
+        <v>357559442910380</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="8">
-        <v>356035118191549</v>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>357559442797787</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="8">
-        <v>356035119506406</v>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <v>357559442610709</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8">
-        <v>354150813634586</v>
+        <v>352611792238840</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8">
-        <v>357398296995241</v>
+        <v>354150814989484</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="8">
-        <v>359946901956160</v>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="3">
+        <v>350942912703823</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8">
-        <v>356184721659300</v>
+        <v>356035118191549</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C14" s="8">
-        <v>355002761600540</v>
+        <v>356035119506406</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F14" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3">
+        <v>356035118168083</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3">
+        <v>356035118444583</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3">
+        <v>352620201117966</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="8">
+        <v>354344111472688</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="8">
+        <v>356184721659300</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8">
+        <v>355482206841364</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8">
+        <v>355482207034563</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8">
+        <v>351251781852425</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="8">
+        <v>350053610588589</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>351805994424346</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="8">
+        <v>359946901956160</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3">
+        <v>352108141609920</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="8">
+        <v>357398296995241</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="8">
+        <v>353133152024743</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="8">
+        <v>350339281344083</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B5:E13">
+  <sortState ref="B5:F28">
     <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
@@ -1188,34 +1402,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1549,24 +1763,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1805,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,34 +2038,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1873,288 +2087,440 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
-        <v>351251781852425</v>
+        <v>355002761600540</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8">
-        <v>355482206841364</v>
+        <v>355645524540047</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8">
-        <v>355482207034563</v>
+        <v>357559442910380</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C8" s="8">
-        <v>356035118191549</v>
+        <v>357559442797787</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8">
-        <v>356035119506406</v>
+        <v>357559442610709</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8">
-        <v>354150813634586</v>
+        <v>352611792238840</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7"/>
       <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8">
-        <v>357398296995241</v>
+        <v>354150814989484</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C12" s="8">
-        <v>359946901956160</v>
+        <v>350942912703823</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8">
-        <v>356184721659300</v>
+        <v>356035118191549</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C14" s="8">
-        <v>355002761600540</v>
+        <v>356035119506406</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8">
+        <v>356035118168083</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="8">
+        <v>356035118444583</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="8">
+        <v>352620201117966</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="8">
+        <v>354344111472688</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="8">
+        <v>356184721659300</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3">
+        <v>355482206841364</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>355482207034563</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3">
+        <v>351251781852425</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3">
+        <v>350053610588589</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>351805994424346</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3">
+        <v>359946901956160</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3">
+        <v>352108141609920</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>357398296995241</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>353133152024743</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2187,34 +2553,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2550,34 +2916,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2950,34 +3316,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3348,34 +3714,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3744,34 +4110,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4115,34 +4481,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4484,34 +4850,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,7 +2652,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -2174,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="114">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Body Scratch</t>
+  </si>
+  <si>
+    <t>23.01.2022</t>
   </si>
 </sst>
 </file>
@@ -2174,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2592,9 @@
       <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -2887,7 +2892,9 @@
       <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2926,7 +2933,9 @@
       <c r="E24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2964,7 +2973,9 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G26" s="10">
         <v>139</v>
       </c>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="115">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>23.01.2022</t>
+  </si>
+  <si>
+    <t>24.01.2022</t>
   </si>
 </sst>
 </file>
@@ -2178,301 +2181,6 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="8">
-        <v>359946902381343</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="8">
-        <v>354580881959384</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
-      <c r="M10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -2543,19 +2251,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8">
-        <v>355002761600540</v>
+        <v>359946902381343</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,6 +2271,305 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354580881959384</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8">
+        <v>355002761600540</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="8">
@@ -2733,7 +2740,9 @@
       <c r="E14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G14" s="10">
         <v>78</v>
       </c>
@@ -2795,7 +2804,9 @@
       <c r="E17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G17" s="10">
         <v>123</v>
       </c>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="19.01.2022" sheetId="12" r:id="rId2"/>
-    <sheet name="17.01.2022" sheetId="11" r:id="rId3"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId4"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId5"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId6"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId7"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId8"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId9"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId10"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId11"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId12"/>
+    <sheet name="31.01.2022" sheetId="13" r:id="rId2"/>
+    <sheet name="19.01.2022" sheetId="12" r:id="rId3"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId4"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId5"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId6"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId7"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId8"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId9"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId10"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId11"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId12"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="122">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -375,6 +376,27 @@
   </si>
   <si>
     <t>24.01.2022</t>
+  </si>
+  <si>
+    <t>31.01.2022</t>
+  </si>
+  <si>
+    <t>Z33</t>
+  </si>
+  <si>
+    <t>i32</t>
+  </si>
+  <si>
+    <t>Touch Problem</t>
+  </si>
+  <si>
+    <t>Torch Light Problem</t>
+  </si>
+  <si>
+    <t>Suddenly Off</t>
+  </si>
+  <si>
+    <t>Komola Super Market, Alaipur, Natore (01717436223)</t>
   </si>
 </sst>
 </file>
@@ -860,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +910,7 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -931,16 +953,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8">
-        <v>359946902381343</v>
+        <v>356814241766249</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -949,89 +971,181 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8">
-        <v>354580881959384</v>
+        <v>352510171630405</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>350954043321383</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3">
+        <v>355645524622589</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3">
+        <v>355645526007649</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8">
+        <v>355645524622662</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8">
+        <v>355645524618785</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>357599104967666</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8">
+        <v>359946901643206</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="8">
+        <v>359946903217728</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>351805994623301</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1162,6 +1276,372 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8">
+        <v>355645522432544</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150812716921</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8">
+        <v>355482202931847</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="8">
+        <v>351251781555689</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>356377117861841</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357398296569301</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357398296540286</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>353133151770841</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:E13">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1541,7 +2021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -1903,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2180,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,114 +2731,203 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8">
-        <v>359946902381343</v>
+        <v>356814241766249</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8">
-        <v>354580881959384</v>
+        <v>352510171630405</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>350954043321383</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8">
+        <v>355645524622589</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8">
+        <v>355645526007649</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8">
+        <v>355645524622662</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8">
+        <v>355645524618785</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>357599104967666</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8">
+        <v>359946901643206</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="F13" s="7"/>
+      <c r="G13" s="10">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="8">
+        <v>359946903217728</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8">
+        <v>351805994623301</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,19 +3119,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8">
-        <v>355002761600540</v>
+        <v>359946902381343</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,484 +3139,199 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8">
-        <v>355645524540047</v>
+        <v>354580881959384</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="8">
-        <v>357559442910380</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>113</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357559442797787</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357559442610709</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="8">
-        <v>352611792238840</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
       <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="8">
-        <v>354150814989484</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>110</v>
-      </c>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="8">
-        <v>350942912703823</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="8">
-        <v>356035118191549</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="8">
-        <v>356035119506406</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="10">
-        <v>78</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="8">
-        <v>356035118168083</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="8">
-        <v>356035118444583</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="7">
-        <v>356035118444526</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="8">
-        <v>352620201117966</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="8">
-        <v>354344111472688</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="8">
-        <v>356184721659300</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>36</v>
-      </c>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3">
-        <v>355482206841364</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3">
-        <v>355482207034563</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3">
-        <v>351251781852425</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3">
-        <v>350053610588589</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="10">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3">
-        <v>351805994424346</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="3">
-        <v>359946901956160</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="3">
-        <v>352108141609920</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="10">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3">
-        <v>357398296995241</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3">
-        <v>353133152024743</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="3">
-        <v>350339281344083</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3060,6 +3344,596 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L31" sqref="K31:L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8">
+        <v>355002761600540</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355645524540047</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8">
+        <v>357559442910380</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357559442797787</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357559442610709</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="8">
+        <v>352611792238840</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354150814989484</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="8">
+        <v>350942912703823</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="8">
+        <v>356035118191549</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="8">
+        <v>356035119506406</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8">
+        <v>356035118168083</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="8">
+        <v>356035118444583</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7">
+        <v>356035118444526</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="8">
+        <v>352620201117966</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="8">
+        <v>354344111472688</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="8">
+        <v>356184721659300</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3">
+        <v>355482206841364</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>355482207034563</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3">
+        <v>351251781852425</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3">
+        <v>350053610588589</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>351805994424346</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3">
+        <v>359946901956160</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3">
+        <v>352108141609920</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>357398296995241</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>353133152024743</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3">
+        <v>350339281344083</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -3422,7 +4296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -3823,7 +4697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -4221,7 +5095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -4616,7 +5490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -4986,370 +5860,4 @@
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8">
-        <v>355645522432544</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8">
-        <v>354150812716921</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8">
-        <v>355482202931847</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8">
-        <v>351251781555689</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8">
-        <v>356377117861841</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357398296569301</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357398296540286</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8">
-        <v>353133151770841</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:E13">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="123">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>Komola Super Market, Alaipur, Natore (01717436223)</t>
+  </si>
+  <si>
+    <t>02.02.2022</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,7 +2664,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3052,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L31" sqref="K31:L31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,7 +3704,9 @@
       <c r="E18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -3719,7 +3724,9 @@
       <c r="E19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3921,7 +3928,9 @@
       <c r="E29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
     <sheet name="31.01.2022" sheetId="13" r:id="rId2"/>
-    <sheet name="19.01.2022" sheetId="12" r:id="rId3"/>
-    <sheet name="17.01.2022" sheetId="11" r:id="rId4"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId5"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId6"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId7"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId8"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId9"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId10"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId11"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId12"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="19.01.2022" sheetId="12" r:id="rId4"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId5"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId6"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId7"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId8"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId9"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId10"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId11"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId12"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId13"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="125">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -400,6 +401,12 @@
   </si>
   <si>
     <t>02.02.2022</t>
+  </si>
+  <si>
+    <t>01.02.2022</t>
+  </si>
+  <si>
+    <t>78 days</t>
   </si>
 </sst>
 </file>
@@ -471,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -531,11 +538,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,6 +637,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,6 +1342,378 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8">
+        <v>352451261508641</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>357559441035924</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="8">
+        <v>354340117595944</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>354150812182967</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599103503983</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="13">
+        <v>350053611344164</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357398292790646</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354580881582301</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:F11">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -1644,7 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2024,7 +2459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2386,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2664,7 +3099,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +3110,7 @@
     <col min="4" max="4" width="13" style="10" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
@@ -2728,6 +3163,9 @@
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2800,6 +3238,9 @@
         <v>20</v>
       </c>
       <c r="F8" s="7"/>
+      <c r="G8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -2817,7 +3258,9 @@
       <c r="E9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2836,6 +3279,9 @@
         <v>20</v>
       </c>
       <c r="F10" s="7"/>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
       <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
@@ -2857,6 +3303,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="7"/>
+      <c r="G11" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -2875,6 +3325,7 @@
         <v>119</v>
       </c>
       <c r="F12" s="7"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -2893,8 +3344,8 @@
         <v>120</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="10">
-        <v>74</v>
+      <c r="G13" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3048,6 +3499,182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8">
+        <v>355645524622589</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355645524622662</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8">
+        <v>355645524618785</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="8">
+        <v>359946901643206</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -3346,11 +3973,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -3942,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4305,7 +4932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4706,7 +5333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -5104,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -5497,376 +6124,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8">
-        <v>352451261508641</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>357559441035924</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="8">
-        <v>354340117595944</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>354150812182967</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357599103503983</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="13">
-        <v>350053611344164</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357398292790646</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="N10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8">
-        <v>354580881582301</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:F11">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -618,6 +618,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,21 +641,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,6 +658,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,34 +965,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1362,34 +1362,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1733,34 +1733,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2102,34 +2102,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2479,34 +2479,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2840,24 +2840,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,34 +3115,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3303,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H11"/>
@@ -3325,7 +3325,7 @@
         <v>119</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -3344,7 +3344,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="16" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3502,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,34 +3518,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3583,7 +3583,7 @@
       <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="17" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -3629,7 +3629,7 @@
       <c r="F7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -3679,7 +3679,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,34 +3695,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3977,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,34 +3994,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4573,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4590,34 +4590,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4953,34 +4953,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5353,34 +5353,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5751,34 +5751,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -9,18 +9,17 @@
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
     <sheet name="31.01.2022" sheetId="13" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
-    <sheet name="19.01.2022" sheetId="12" r:id="rId4"/>
-    <sheet name="17.01.2022" sheetId="11" r:id="rId5"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId6"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId7"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId8"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId9"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId10"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId11"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId12"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId13"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId14"/>
+    <sheet name="19.01.2022" sheetId="12" r:id="rId3"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId4"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId5"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId6"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId7"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId8"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId9"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId10"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId11"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId12"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="126">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -407,6 +406,9 @@
   </si>
   <si>
     <t>78 days</t>
+  </si>
+  <si>
+    <t>06.02.2022</t>
   </si>
 </sst>
 </file>
@@ -478,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -538,40 +540,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,12 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,24 +607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,34 +914,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1018,200 +967,110 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="8">
-        <v>356814241766249</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="8">
-        <v>352510171630405</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>350954043321383</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3">
-        <v>355645524622589</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3">
-        <v>355645526007649</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8">
-        <v>355645524622662</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="8">
-        <v>355645524618785</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>357599104967666</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="8">
-        <v>359946901643206</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="1">
-        <v>74</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="8">
-        <v>359946903217728</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3">
-        <v>351805994623301</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,378 +1201,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8">
-        <v>352451261508641</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>357559441035924</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="8">
-        <v>354340117595944</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>354150812182967</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357599103503983</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="13">
-        <v>350053611344164</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357398292790646</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="N10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8">
-        <v>354580881582301</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:F11">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -1733,34 +1220,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2079,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2102,34 +1589,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2459,7 +1946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2479,34 +1966,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2821,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2840,24 +2327,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3098,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,34 +2602,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3183,7 +2670,9 @@
       <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -3201,7 +2690,9 @@
       <c r="E6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -3219,7 +2710,9 @@
       <c r="E7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -3364,7 +2857,9 @@
       <c r="E14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -3382,7 +2877,9 @@
       <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -3500,186 +2997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="E12:F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8">
-        <v>355645524622589</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="8">
-        <v>355645524622662</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8">
-        <v>355645524618785</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="8">
-        <v>359946901643206</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,34 +3016,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3973,12 +3294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,34 +3315,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4245,9 +3566,6 @@
       <c r="F14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="10">
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -4285,7 +3603,7 @@
       <c r="E16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>356035118444526</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -4311,9 +3629,6 @@
       <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="10">
-        <v>123</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -4494,9 +3809,6 @@
       </c>
       <c r="F26" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G26" s="10">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4569,7 +3881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4590,34 +3902,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4932,7 +4244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4953,34 +4265,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5333,7 +4645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -5353,34 +4665,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5731,7 +5043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -5751,34 +5063,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -6124,4 +5436,376 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8">
+        <v>352451261508641</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>357559441035924</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="8">
+        <v>354340117595944</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>354150812182967</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599103503983</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="13">
+        <v>350053611344164</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357398292790646</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354580881582301</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:F11">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="127">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>06.02.2022</t>
+  </si>
+  <si>
+    <t>08.02.2022</t>
   </si>
 </sst>
 </file>
@@ -2585,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,7 +2820,9 @@
       <c r="E12" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,7 +3005,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,9 +3610,6 @@
       </c>
       <c r="F16" s="8">
         <v>356035118444526</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -900,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2588,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -3303,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="128">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>08.02.2022</t>
+  </si>
+  <si>
+    <t>232 days</t>
   </si>
 </sst>
 </file>
@@ -900,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,51 +973,101 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8">
+        <v>355645524622589</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355645524622662</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3">
+        <v>355645524618785</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3">
+        <v>359946901643206</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3">
+        <v>350053610588589</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2588,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="31.01.2022" sheetId="13" r:id="rId2"/>
-    <sheet name="19.01.2022" sheetId="12" r:id="rId3"/>
-    <sheet name="17.01.2022" sheetId="11" r:id="rId4"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId5"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId6"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId7"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId8"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId9"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId10"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId11"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId12"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId13"/>
+    <sheet name="06.03.2022" sheetId="14" r:id="rId2"/>
+    <sheet name="31.01.2022" sheetId="13" r:id="rId3"/>
+    <sheet name="19.01.2022" sheetId="12" r:id="rId4"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId5"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId6"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId7"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId8"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId9"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId10"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId11"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId12"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId13"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="138">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -414,7 +415,37 @@
     <t>08.02.2022</t>
   </si>
   <si>
-    <t>232 days</t>
+    <t>103 days</t>
+  </si>
+  <si>
+    <t>Light Problem</t>
+  </si>
+  <si>
+    <t>B62</t>
+  </si>
+  <si>
+    <t>Charger Problem</t>
+  </si>
+  <si>
+    <t>69 days</t>
+  </si>
+  <si>
+    <t>105 days</t>
+  </si>
+  <si>
+    <t>84 days</t>
+  </si>
+  <si>
+    <t>Button up space</t>
+  </si>
+  <si>
+    <t>73 days</t>
+  </si>
+  <si>
+    <t>Display Light</t>
+  </si>
+  <si>
+    <t>06.03.2022</t>
   </si>
 </sst>
 </file>
@@ -550,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +630,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,34 +957,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -974,168 +1011,226 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C5" s="8">
-        <v>355645524622589</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>115</v>
+        <v>354473222273584</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8">
-        <v>355645524622662</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>115</v>
+        <v>357559443211267</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3">
-        <v>355645524618785</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792555342</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="3">
-        <v>359946901643206</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599104881727</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3">
-        <v>350053610588589</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>127</v>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>350954042797682</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8">
+        <v>356035119037220</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="8">
+        <v>356035116877867</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8">
+        <v>355482206922909</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8">
+        <v>358425756607641</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
+        <v>351805994149406</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8">
+        <v>357398296903823</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8">
+        <v>357398296426205</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1257,6 +1352,378 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8">
+        <v>352451261508641</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>357559441035924</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="8">
+        <v>354340117595944</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>354150812182967</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599103503983</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="13">
+        <v>350053611344164</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357398292790646</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354580881582301</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:F11">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -1276,34 +1743,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1622,7 +2089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1645,34 +2112,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2002,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2022,34 +2489,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2364,7 +2831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2383,24 +2850,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2641,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,34 +3125,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354473222273584</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>357559443211267</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792555342</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599104881727</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>350954042797682</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8">
+        <v>356035119037220</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10"/>
+      <c r="M10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="8">
+        <v>356035116877867</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8">
+        <v>355482206922909</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8">
+        <v>358425756607641</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
+        <v>351805994149406</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8">
+        <v>357398296903823</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8">
+        <v>357398296426205</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:F17">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3053,7 +3940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -3074,34 +3961,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3352,7 +4239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -3373,34 +4260,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3936,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -3957,34 +4844,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4299,7 +5186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4320,34 +5207,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4700,7 +5587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -4720,34 +5607,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5098,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -5118,34 +6005,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5491,376 +6378,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8">
-        <v>352451261508641</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>357559441035924</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="8">
-        <v>354340117595944</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>354150812182967</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357599103503983</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="13">
-        <v>350053611344164</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357398292790646</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="N10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8">
-        <v>354580881582301</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:F11">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -941,7 +941,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="06.03.2022" sheetId="14" r:id="rId2"/>
-    <sheet name="31.01.2022" sheetId="13" r:id="rId3"/>
-    <sheet name="19.01.2022" sheetId="12" r:id="rId4"/>
-    <sheet name="17.01.2022" sheetId="11" r:id="rId5"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId6"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId7"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId8"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId9"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId10"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId11"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId12"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId13"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="06.03.2022" sheetId="14" r:id="rId3"/>
+    <sheet name="31.01.2022" sheetId="13" r:id="rId4"/>
+    <sheet name="19.01.2022" sheetId="12" r:id="rId5"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId6"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId7"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId8"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId9"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId10"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId11"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId12"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId13"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId14"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="140">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -446,6 +447,12 @@
   </si>
   <si>
     <t>06.03.2022</t>
+  </si>
+  <si>
+    <t>Receicing DATE</t>
+  </si>
+  <si>
+    <t>09.03.2022</t>
   </si>
 </sst>
 </file>
@@ -940,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,6 +1359,401 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354150811925127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150812574585</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792184200</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357330671424067</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357330671462703</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357330672605425</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357330671873420</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>352451261522345</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8">
+        <v>354430151105781</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13">
+        <v>355963113682249</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
+        <v>359312601221944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -1723,7 +2125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2089,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2469,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2831,7 +3233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -3106,10 +3508,426 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354473222273584</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>357559443211267</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792555342</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599104881727</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>350954042797682</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8">
+        <v>356035119037220</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="8">
+        <v>356035116877867</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8">
+        <v>355482206922909</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8">
+        <v>358425756607641</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
+        <v>351805994149406</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8">
+        <v>357398296903823</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8">
+        <v>357398296426205</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,12 +4342,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -4239,7 +5057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -4823,7 +5641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -5186,7 +6004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -5587,7 +6405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -5983,399 +6801,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354150811925127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8">
-        <v>354150812574585</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>352611792184200</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357330671424067</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357330671462703</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357330672605425</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357330671873420</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>352451261522345</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="8">
-        <v>354430151105781</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13">
-        <v>355963113682249</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="8">
-        <v>359312601221944</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
-    <sheet name="06.03.2022" sheetId="14" r:id="rId3"/>
-    <sheet name="31.01.2022" sheetId="13" r:id="rId4"/>
-    <sheet name="19.01.2022" sheetId="12" r:id="rId5"/>
-    <sheet name="17.01.2022" sheetId="11" r:id="rId6"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId7"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId8"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId9"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId10"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId11"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId12"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId13"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId14"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId15"/>
+    <sheet name="06.03.2022" sheetId="15" r:id="rId2"/>
+    <sheet name="31.01.2022" sheetId="13" r:id="rId3"/>
+    <sheet name="19.01.2022" sheetId="12" r:id="rId4"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId5"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId6"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId7"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId8"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId9"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId10"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId11"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId12"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId13"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="135">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -416,9 +415,6 @@
     <t>08.02.2022</t>
   </si>
   <si>
-    <t>103 days</t>
-  </si>
-  <si>
     <t>Light Problem</t>
   </si>
   <si>
@@ -428,19 +424,7 @@
     <t>Charger Problem</t>
   </si>
   <si>
-    <t>69 days</t>
-  </si>
-  <si>
-    <t>105 days</t>
-  </si>
-  <si>
-    <t>84 days</t>
-  </si>
-  <si>
     <t>Button up space</t>
-  </si>
-  <si>
-    <t>73 days</t>
   </si>
   <si>
     <t>Display Light</t>
@@ -588,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,9 +621,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,34 +945,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1017,227 +998,121 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354473222273584</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>357559443211267</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="8">
-        <v>352611792555342</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357599104881727</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>350954042797682</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="8">
-        <v>356035119037220</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="8">
-        <v>356035116877867</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8">
-        <v>355482206922909</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="8">
-        <v>358425756607641</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
-        <v>351805994149406</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8">
-        <v>357398296903823</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="18"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8">
-        <v>357398296426205</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1359,401 +1234,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354150811925127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8">
-        <v>354150812574585</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>352611792184200</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357330671424067</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357330671462703</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357330672605425</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357330671873420</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>352451261522345</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="8">
-        <v>354430151105781</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13">
-        <v>355963113682249</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="8">
-        <v>359312601221944</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -1774,34 +1254,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2125,7 +1605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2145,34 +1625,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2491,7 +1971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2514,34 +1994,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2871,7 +2351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2891,34 +2371,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3233,7 +2713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -3252,24 +2732,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3510,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,34 +3007,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3573,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,19 +3061,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="8">
         <v>354473222273584</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3607,13 +3087,13 @@
         <v>357559443211267</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,13 +3107,13 @@
         <v>352611792555342</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3647,13 +3127,13 @@
         <v>357599104881727</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,7 +3147,7 @@
         <v>350954042797682</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>17</v>
@@ -3685,13 +3165,13 @@
         <v>356035119037220</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,10 +3185,10 @@
         <v>356035116877867</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -3723,13 +3203,13 @@
         <v>355482206922909</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3743,13 +3223,13 @@
         <v>358425756607641</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,7 +3243,7 @@
         <v>351805994149406</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>56</v>
@@ -3781,13 +3261,13 @@
         <v>357398296903823</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>139</v>
+      <c r="F15" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,10 +3281,10 @@
         <v>357398296426205</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -3923,426 +3403,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354473222273584</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>357559443211267</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="8">
-        <v>352611792555342</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357599104881727</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>350954042797682</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="8">
-        <v>356035119037220</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10"/>
-      <c r="M10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="8">
-        <v>356035116877867</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8">
-        <v>355482206922909</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="8">
-        <v>358425756607641</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
-        <v>351805994149406</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8">
-        <v>357398296903823</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8">
-        <v>357398296426205</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:F17">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -4363,34 +3423,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4758,7 +3818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -4779,34 +3839,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5057,7 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -5078,34 +4138,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5641,7 +4701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -5662,34 +4722,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -6004,7 +5064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -6025,34 +5085,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -6405,7 +5465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -6425,34 +5485,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -6698,6 +5758,401 @@
       </c>
       <c r="F15" s="7" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354150811925127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150812574585</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792184200</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357330671424067</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357330671462703</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357330672605425</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357330671873420</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>352451261522345</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8">
+        <v>354430151105781</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13">
+        <v>355963113682249</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
+        <v>359312601221944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="141">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -437,6 +437,24 @@
   </si>
   <si>
     <t>09.03.2022</t>
+  </si>
+  <si>
+    <t>103 Days</t>
+  </si>
+  <si>
+    <t>105 Days</t>
+  </si>
+  <si>
+    <t>69 Days</t>
+  </si>
+  <si>
+    <t>73 Days</t>
+  </si>
+  <si>
+    <t>84 days</t>
+  </si>
+  <si>
+    <t>13.03.2022</t>
   </si>
 </sst>
 </file>
@@ -572,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,6 +663,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2988,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3031,7 @@
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3016,7 +3041,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>121</v>
       </c>
@@ -3026,7 +3051,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -3036,7 +3061,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -3056,7 +3081,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -3076,7 +3101,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3096,7 +3121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3116,7 +3141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -3136,25 +3161,28 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="13">
         <v>350954042797682</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="12"/>
+      <c r="G9" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -3174,45 +3202,49 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="13">
         <v>356035116877867</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="F11" s="12"/>
+      <c r="G11" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="13">
         <v>355482206922909</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -3232,25 +3264,28 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="13">
         <v>351805994149406</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="25"/>
+      <c r="G14" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -3266,27 +3301,30 @@
       <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="13">
         <v>357398296426205</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -3407,7 +3445,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,20 +3577,20 @@
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="13">
         <v>355645524622589</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3580,20 +3618,20 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="13">
         <v>355645524622662</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="26" t="s">
         <v>124</v>
       </c>
       <c r="M10" s="10" t="s">
@@ -3604,20 +3642,20 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="13">
         <v>355645524618785</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H11"/>
@@ -3647,20 +3685,20 @@
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="13">
         <v>359946901643206</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3823,7 +3861,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:G23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,23 +4589,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="13">
         <v>350053610588589</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="10">
+      <c r="F23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="15">
         <v>232</v>
       </c>
     </row>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -10,17 +10,18 @@
     <sheet name="Print" sheetId="1" r:id="rId1"/>
     <sheet name="06.03.2022" sheetId="15" r:id="rId2"/>
     <sheet name="31.01.2022" sheetId="13" r:id="rId3"/>
-    <sheet name="19.01.2022" sheetId="12" r:id="rId4"/>
-    <sheet name="17.01.2022" sheetId="11" r:id="rId5"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId6"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId7"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId8"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId9"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId10"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId11"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId12"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId13"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
+    <sheet name="19.01.2022" sheetId="12" r:id="rId5"/>
+    <sheet name="17.01.2022" sheetId="11" r:id="rId6"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId7"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId8"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId9"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId10"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId11"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId12"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId13"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId14"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="141">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -643,6 +644,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,13 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +955,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,34 +971,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1259,6 +1260,401 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354150811925127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150812574585</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792184200</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357330671424067</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357330671462703</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357330672605425</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357330671873420</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>352451261522345</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8">
+        <v>354430151105781</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13">
+        <v>355963113682249</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
+        <v>359312601221944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -1279,34 +1675,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1630,7 +2026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -1650,34 +2046,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1996,7 +2392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2019,34 +2415,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2376,7 +2772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2396,34 +2792,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2738,7 +3134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2757,24 +3153,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3015,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,34 +3428,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3280,7 +3676,7 @@
       <c r="E14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="15" t="s">
         <v>136</v>
       </c>
@@ -3444,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3461,34 +3857,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3590,7 +3986,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3631,7 +4027,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="19" t="s">
         <v>124</v>
       </c>
       <c r="M10" s="10" t="s">
@@ -3655,7 +4051,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="20" t="s">
         <v>124</v>
       </c>
       <c r="H11"/>
@@ -3698,7 +4094,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="20" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3857,6 +4253,273 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="13">
+        <v>355645524622589</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13">
+        <v>355645524622662</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13">
+        <v>355645524618785</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="13">
+        <v>359946901643206</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -3877,34 +4540,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4155,7 +4818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -4176,34 +4839,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4741,7 +5404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4762,34 +5425,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5104,7 +5767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -5125,34 +5788,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5505,7 +6168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -5525,34 +6188,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5798,401 +6461,6 @@
       </c>
       <c r="F15" s="7" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354150811925127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8">
-        <v>354150812574585</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>352611792184200</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357330671424067</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357330671462703</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357330672605425</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357330671873420</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>352451261522345</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="8">
-        <v>354430151105781</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13">
-        <v>355963113682249</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="8">
-        <v>359312601221944</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -587,11 +587,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,9 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,6 +705,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,34 +1038,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1128,7 +1195,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="7"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -1279,34 +1346,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1675,34 +1742,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2046,34 +2113,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2415,34 +2482,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2792,34 +2859,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3153,24 +3220,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3411,7 +3478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -3428,34 +3495,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3676,7 +3743,7 @@
       <c r="E14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="15" t="s">
         <v>136</v>
       </c>
@@ -3840,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,39 +3919,39 @@
     <col min="4" max="4" width="13" style="10" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3953,19 +4020,19 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="28">
         <v>350954043321383</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="27" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3986,7 +4053,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="36" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3994,19 +4061,19 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="34">
         <v>355645526007649</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4027,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="12" t="s">
         <v>124</v>
       </c>
       <c r="M10" s="10" t="s">
@@ -4051,7 +4118,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="17" t="s">
         <v>124</v>
       </c>
       <c r="H11"/>
@@ -4060,22 +4127,22 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="34">
         <v>357599104967666</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -4094,7 +4161,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="17" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4102,19 +4169,19 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="31">
         <v>359946903217728</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="30" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4273,34 +4340,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4342,7 +4409,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4363,7 +4430,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>124</v>
       </c>
       <c r="M6" s="10" t="s">
@@ -4387,7 +4454,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>124</v>
       </c>
       <c r="H7"/>
@@ -4409,7 +4476,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4540,34 +4607,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4839,34 +4906,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5425,34 +5492,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5788,34 +5855,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -6188,34 +6255,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
